--- a/utils/ALL.xlsx
+++ b/utils/ALL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12345"/>
+    <workbookView windowWidth="28245" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
-  <si>
-    <t>aaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>ccc</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>grades</t>
+  </si>
+  <si>
+    <t>exception</t>
   </si>
   <si>
     <t>日期</t>
@@ -58,85 +61,85 @@
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>13:15:35</t>
-  </si>
-  <si>
-    <t>落花—陆阮阮</t>
-  </si>
-  <si>
-    <t>4W6</t>
-  </si>
-  <si>
-    <t>13:13:44</t>
-  </si>
-  <si>
-    <t>落花 清酒卿</t>
-  </si>
-  <si>
-    <t>3w3</t>
-  </si>
-  <si>
-    <t>13:09:58</t>
-  </si>
-  <si>
-    <t>落花der顾榆妍（糖）</t>
-  </si>
-  <si>
-    <t>3w5</t>
-  </si>
-  <si>
-    <t>13:08:00</t>
-  </si>
-  <si>
-    <t>落花-花祭夜</t>
-  </si>
-  <si>
-    <t>5w4</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>13:01:59</t>
-  </si>
-  <si>
-    <t>落花 总攻大人</t>
-  </si>
-  <si>
-    <t>6.9w</t>
-  </si>
-  <si>
-    <t>12:49:06</t>
-  </si>
-  <si>
-    <t>落花 千早</t>
-  </si>
-  <si>
-    <t>6w5</t>
-  </si>
-  <si>
-    <t>12:38:29</t>
-  </si>
-  <si>
-    <t>落花◈啾啾</t>
-  </si>
-  <si>
-    <t>6w6</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>12:05:03</t>
-  </si>
-  <si>
-    <t>落花  赖皮蛇</t>
   </si>
   <si>
     <t xml:space="preserve">打卡10次，单次4万六
 </t>
+  </si>
+  <si>
+    <t>13:15:35</t>
+  </si>
+  <si>
+    <t>落花—陆阮阮</t>
+  </si>
+  <si>
+    <t>4W6</t>
+  </si>
+  <si>
+    <t>13:13:44</t>
+  </si>
+  <si>
+    <t>落花 清酒卿</t>
+  </si>
+  <si>
+    <t>3w3</t>
+  </si>
+  <si>
+    <t>13:09:58</t>
+  </si>
+  <si>
+    <t>落花der顾榆妍（糖）</t>
+  </si>
+  <si>
+    <t>3w5</t>
+  </si>
+  <si>
+    <t>13:08:00</t>
+  </si>
+  <si>
+    <t>落花-花祭夜</t>
+  </si>
+  <si>
+    <t>5w4</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13:01:59</t>
+  </si>
+  <si>
+    <t>落花 总攻大人</t>
+  </si>
+  <si>
+    <t>6.9w</t>
+  </si>
+  <si>
+    <t>12:49:06</t>
+  </si>
+  <si>
+    <t>落花 千早</t>
+  </si>
+  <si>
+    <t>6w5</t>
+  </si>
+  <si>
+    <t>12:38:29</t>
+  </si>
+  <si>
+    <t>落花◈啾啾</t>
+  </si>
+  <si>
+    <t>6w6</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>12:05:03</t>
+  </si>
+  <si>
+    <t>落花  赖皮蛇</t>
   </si>
   <si>
     <t>10:02:34</t>
@@ -174,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -196,6 +199,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -203,8 +260,37 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,114 +312,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,13 +351,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,169 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,6 +542,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -561,22 +579,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,7 +588,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,133 +660,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1148,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1168,67 +1171,70 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>270000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
       <c r="F4">
         <v>460000</v>
@@ -1236,19 +1242,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>330000</v>
@@ -1256,19 +1262,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>350000</v>
@@ -1276,19 +1282,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>594000</v>
@@ -1296,19 +1302,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>690000</v>
@@ -1316,19 +1322,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>650000</v>
@@ -1336,19 +1342,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>990000</v>
@@ -1356,33 +1362,33 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>402440</v>
@@ -1390,19 +1396,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13">
         <v>320000</v>
@@ -1410,19 +1416,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>730000</v>
